--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\slidertest\excelfetch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C500DFF-15DD-4E0C-ABAA-688F51C20AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE5F092-1D75-43DF-B45D-46103FA607F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4EE4560B-2242-45B6-AAAF-3FCAB05C4C70}"/>
   </bookViews>
@@ -67,7 +67,7 @@
     <t>10. Avalanche &amp; Ooty Sightseeing</t>
   </si>
   <si>
-    <t>Menu</t>
+    <t>Local Sightseeing</t>
   </si>
 </sst>
 </file>

--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -2,19 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE5F092-1D75-43DF-B45D-46103FA607F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA66F4A7-E30D-40C3-A4FC-719F36C343DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4EE4560B-2242-45B6-AAAF-3FCAB05C4C70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Local Sight Seeing (Hour Basis)'!$B$3:$H$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +48,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="45">
+  <si>
+    <t>VEHICLES</t>
+  </si>
+  <si>
+    <t>HRS</t>
+  </si>
+  <si>
+    <t>OOTY SIGHTSEEING - 5 HOURS</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>INDICA NON A/C</t>
+  </si>
+  <si>
+    <t>BOOK NOW! </t>
+  </si>
+  <si>
+    <t>INDIGO A/C</t>
+  </si>
+  <si>
+    <t>LOGAN A/C</t>
+  </si>
+  <si>
+    <t>TOYOTA ETIOS A/C</t>
+  </si>
+  <si>
+    <t>TAVERA NON A/C</t>
+  </si>
+  <si>
+    <t>INNOVA A/C</t>
+  </si>
+  <si>
+    <t>FREE 
+KMS</t>
+  </si>
+  <si>
+    <t>COONOOR SIGHTSEEING - 5 HOURS</t>
+  </si>
+  <si>
+    <t>OOTY &amp; COONOOR SIGHTSEEING - 9 HOURS</t>
+  </si>
+  <si>
+    <t>ONLY MUDUMALAI SIGHTSEEING - 5 HOURS</t>
+  </si>
+  <si>
+    <t>PYKARA SIGHTSEEING - 5 HOURS</t>
+  </si>
+  <si>
+    <t>PYKARA &amp; MUDUMALAI SIGHTSEEING - 9 HOURS</t>
+  </si>
+  <si>
+    <t>BLACK THUNDER SIGHTSEEING - 8 HOURS</t>
+  </si>
+  <si>
+    <t>AVALANCHI SIGHTSEEING - 9HOURS</t>
+  </si>
+  <si>
+    <t>OOTY &amp; PYKARA SIGHTSEEING - 9 HOURS</t>
+  </si>
+  <si>
+    <t>AVALANCHI &amp; OOTY SIGHTSEEING - 8 HOURS</t>
+  </si>
   <si>
     <t>1. Ooty  Sightseeing</t>
   </si>
@@ -64,19 +141,285 @@
     <t>9. Ooty &amp; Pykara Sightseeing</t>
   </si>
   <si>
-    <t>10. Avalanche &amp; Ooty Sightseeing</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PYKARA You will visit: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pine Forest, 6th mile (shooting spot), Kamarajar Sagar Dam, 9th mile (shooting spot), Golf course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) 
+Back to Ooty. (5 hours)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OOTY/ COONOOR You will visit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dodabetta Peak, Tea Factory &amp; Museum, Wax Museum, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden, Ketty Valley view (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Tea Garden, Nigiris Mountain Toy Train. (9 hours)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MUDUMALAI You will visit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mudumalai Wild Life Sanctuary, Bison Valley View, Kalhatty Water Falls. 
+Falls (5 hours)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PYKARA / MUDUMALAI You will visit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pine Forest, 6th mile (shooting spot), Kamarajar Sagar Dam, 9th mile (shooting spot), Golf course (outer view), Pykara falls, Pykara lake &amp; boating, Needle Rock, Frog Mountain View, Pykara Dam (outer view), Mudumalai Wild Life Sanctuary, Bison Valley View, Kalhatty Water Falls. (9 hours)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OOTY/ PYKARA You will visit: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam,  9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) (9 hours)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AVALANCHI / OOTY You will visit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Avalnchi, Tribal Musium, Emerald Lake, Herboretum (Garden), Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local. (8 hours)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AVALANCHI You will visit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Avalanchi,Tribal Musium, Emerald Lake, Herboretum( garden). (9hours)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BLACK THUNDER You will visit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kateri Park, Black Thunder Wter Them Park, Law's Falls. (8 hours)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OOTY You will visit</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local Market. (5 hours)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COONOOR You will visit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ketty Valleyview( view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Nilgiris Mountain Toy Train, Return back to Ooty. (5 hours)</t>
+    </r>
+  </si>
+  <si>
+    <t>&amp;#8377; / HRS
+(Extra Hrs.)</t>
+  </si>
+  <si>
+    <t>&amp;#8377; / KM 
+(After Free KMs )</t>
+  </si>
+  <si>
+    <t>Book Now &amp;darr;</t>
   </si>
   <si>
     <t>Local Sightseeing</t>
+  </si>
+  <si>
+    <t>10. Avalanchi &amp; Ooty Sightseeing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,8 +432,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00FFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF00FFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF00FFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +478,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -113,6 +494,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -123,6 +519,184 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -131,10 +705,113 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -142,6 +819,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -449,74 +1131,2209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2716BF4B-D911-4E47-A999-7A843D98B57C}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC98D58-4003-4A71-88F5-347B8A113771}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161ADDF5-6F89-48DA-99BF-8DE736BDF2BC}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>95</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10">
+        <v>95</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1600</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10">
+        <v>95</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10">
+        <v>95</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10">
+        <v>95</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11">
+        <v>95</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7890ACA1-DE51-4723-A53B-70483ED043AD}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>85</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1600</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>85</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>85</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>85</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1900</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>85</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>85</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2D1E5D-E6C8-4056-B138-A06BCF08D1CD}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>50</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1050</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>50</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1350</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>50</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>50</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E9BDC-6743-41EB-AF86-0A9BA761778C}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>65</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>65</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1050</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>65</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1350</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>65</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>65</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD403B99-6FA7-45E3-B075-BA0F617E5467}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>65</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>65</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1400</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>65</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1450</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>65</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>65</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5BAB64-26EA-416E-BC42-AC71DC158CB5}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>90</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1400</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10">
+        <v>90</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10">
+        <v>90</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1600</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10">
+        <v>90</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1750</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10">
+        <v>90</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11">
+        <v>90</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE67FD3B-EEDA-49E6-9DAB-534DA2C2936C}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>80</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1400</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>80</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>80</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1600</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>80</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1650</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>80</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>80</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EA6A0E-F402-4739-9533-60EA36696789}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>120</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1800</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10">
+        <v>120</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1850</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10">
+        <v>120</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10">
+        <v>120</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2100</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10">
+        <v>120</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11">
+        <v>120</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837C1F2D-79E6-41D9-959A-FA998B6F2267}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>100</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1600</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>100</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>100</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>100</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1900</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>100</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>100</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0249F-C885-464F-B035-093E95C66C82}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>85</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1600</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>85</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>85</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>85</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1900</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>85</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>85</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA66F4A7-E30D-40C3-A4FC-719F36C343DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F8E57F-65F2-418E-89E0-E69335F4DAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
@@ -394,13 +394,13 @@
 (After Free KMs )</t>
   </si>
   <si>
-    <t>Book Now &amp;darr;</t>
-  </si>
-  <si>
     <t>Local Sightseeing</t>
   </si>
   <si>
     <t>10. Avalanchi &amp; Ooty Sightseeing</t>
+  </si>
+  <si>
+    <t>Book Now</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1148,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1279,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1491,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,7 +1916,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,7 +2128,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,7 +2340,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,7 +2552,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2708,7 +2708,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,7 +2764,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,7 +2976,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,7 +3188,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F8E57F-65F2-418E-89E0-E69335F4DAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D3AF4-6CA6-4E35-B45A-C293070DA108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="10" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,6 @@
     <t>INNOVA A/C</t>
   </si>
   <si>
-    <t>FREE 
-KMS</t>
-  </si>
-  <si>
     <t>COONOOR SIGHTSEEING - 5 HOURS</t>
   </si>
   <si>
@@ -386,14 +382,6 @@
     </r>
   </si>
   <si>
-    <t>&amp;#8377; / HRS
-(Extra Hrs.)</t>
-  </si>
-  <si>
-    <t>&amp;#8377; / KM 
-(After Free KMs )</t>
-  </si>
-  <si>
     <t>Local Sightseeing</t>
   </si>
   <si>
@@ -401,6 +389,15 @@
   </si>
   <si>
     <t>Book Now</t>
+  </si>
+  <si>
+    <t>FREE KMS</t>
+  </si>
+  <si>
+    <t>&amp;#8377; / HRS(Extra Hrs.)</t>
+  </si>
+  <si>
+    <t>&amp;#8377; / KM (After Free KMs )</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1132,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1148,12 +1145,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1165,47 +1162,47 @@
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1220,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1236,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1250,7 +1247,7 @@
     </row>
     <row r="2" spans="1:7" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1267,19 +1264,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1434,8 +1431,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1448,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1462,7 +1459,7 @@
     </row>
     <row r="2" spans="1:7" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1479,19 +1476,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1647,7 +1644,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1653,7 @@
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
   </cols>
@@ -1674,7 +1671,7 @@
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1691,19 +1688,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,7 +1857,431 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>65</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>65</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1050</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>65</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1350</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>65</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>65</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD403B99-6FA7-45E3-B075-BA0F617E5467}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>65</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>65</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1400</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>65</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1450</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>65</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>65</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5BAB64-26EA-416E-BC42-AC71DC158CB5}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,9 +2306,9 @@
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1904,19 +2325,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,13 +2345,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D4" s="12">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E4" s="15">
         <v>100</v>
@@ -1947,13 +2368,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D5" s="13">
-        <v>1050</v>
+        <v>1500</v>
       </c>
       <c r="E5" s="16">
         <v>100</v>
@@ -1970,13 +2391,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D6" s="13">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="E6" s="16">
         <v>100</v>
@@ -1993,13 +2414,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D7" s="13">
-        <v>1350</v>
+        <v>1750</v>
       </c>
       <c r="E7" s="16">
         <v>100</v>
@@ -2016,13 +2437,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D8" s="13">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="E8" s="16">
         <v>150</v>
@@ -2039,13 +2460,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D9" s="14">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="E9" s="17">
         <v>200</v>
@@ -2066,13 +2487,225 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD403B99-6FA7-45E3-B075-BA0F617E5467}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE67FD3B-EEDA-49E6-9DAB-534DA2C2936C}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>80</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1400</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>80</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>80</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1600</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>80</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1650</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>80</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>80</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EA6A0E-F402-4739-9533-60EA36696789}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,9 +2730,9 @@
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -2116,19 +2749,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2136,13 +2769,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D4" s="12">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E4" s="15">
         <v>100</v>
@@ -2159,13 +2792,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D5" s="13">
-        <v>1300</v>
+        <v>1850</v>
       </c>
       <c r="E5" s="16">
         <v>100</v>
@@ -2182,13 +2815,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D6" s="13">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="16">
         <v>100</v>
@@ -2205,13 +2838,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D7" s="13">
-        <v>1450</v>
+        <v>2100</v>
       </c>
       <c r="E7" s="16">
         <v>100</v>
@@ -2228,13 +2861,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D8" s="13">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="E8" s="16">
         <v>150</v>
@@ -2251,13 +2884,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D9" s="14">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="E9" s="17">
         <v>200</v>
@@ -2278,437 +2911,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5BAB64-26EA-416E-BC42-AC71DC158CB5}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837C1F2D-79E6-41D9-959A-FA998B6F2267}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
-        <v>90</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1400</v>
-      </c>
-      <c r="E4" s="15">
-        <v>100</v>
-      </c>
-      <c r="F4" s="15">
-        <v>7</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10">
-        <v>90</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1500</v>
-      </c>
-      <c r="E5" s="16">
-        <v>100</v>
-      </c>
-      <c r="F5" s="16">
-        <v>8</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10">
-        <v>90</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1600</v>
-      </c>
-      <c r="E6" s="16">
-        <v>100</v>
-      </c>
-      <c r="F6" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10">
-        <v>90</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1750</v>
-      </c>
-      <c r="E7" s="16">
-        <v>100</v>
-      </c>
-      <c r="F7" s="16">
-        <v>9</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>9</v>
-      </c>
-      <c r="C8" s="10">
-        <v>90</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2200</v>
-      </c>
-      <c r="E8" s="16">
-        <v>150</v>
-      </c>
-      <c r="F8" s="16">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11">
-        <v>90</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2500</v>
-      </c>
-      <c r="E9" s="17">
-        <v>200</v>
-      </c>
-      <c r="F9" s="17">
-        <v>12</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE67FD3B-EEDA-49E6-9DAB-534DA2C2936C}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9">
-        <v>80</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1400</v>
-      </c>
-      <c r="E4" s="15">
-        <v>100</v>
-      </c>
-      <c r="F4" s="15">
-        <v>7</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10">
-        <v>80</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1500</v>
-      </c>
-      <c r="E5" s="16">
-        <v>100</v>
-      </c>
-      <c r="F5" s="16">
-        <v>8</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10">
-        <v>80</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1600</v>
-      </c>
-      <c r="E6" s="16">
-        <v>100</v>
-      </c>
-      <c r="F6" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10">
-        <v>80</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1650</v>
-      </c>
-      <c r="E7" s="16">
-        <v>100</v>
-      </c>
-      <c r="F7" s="16">
-        <v>9</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10">
-        <v>80</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1800</v>
-      </c>
-      <c r="E8" s="16">
-        <v>150</v>
-      </c>
-      <c r="F8" s="16">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
-        <v>80</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2200</v>
-      </c>
-      <c r="E9" s="17">
-        <v>200</v>
-      </c>
-      <c r="F9" s="17">
-        <v>12</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EA6A0E-F402-4739-9533-60EA36696789}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,9 +2942,9 @@
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:7" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -2752,19 +2961,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2772,13 +2981,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D4" s="12">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E4" s="15">
         <v>100</v>
@@ -2795,13 +3004,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D5" s="13">
-        <v>1850</v>
+        <v>1700</v>
       </c>
       <c r="E5" s="16">
         <v>100</v>
@@ -2818,13 +3027,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D6" s="13">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E6" s="16">
         <v>100</v>
@@ -2841,13 +3050,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D7" s="13">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E7" s="16">
         <v>100</v>
@@ -2864,13 +3073,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D8" s="13">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="E8" s="16">
         <v>150</v>
@@ -2887,13 +3096,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D9" s="14">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="E9" s="17">
         <v>200</v>
@@ -2914,13 +3123,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837C1F2D-79E6-41D9-959A-FA998B6F2267}">
-  <sheetPr codeName="Sheet8"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0249F-C885-464F-B035-093E95C66C82}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,7 +3156,7 @@
     </row>
     <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -2964,231 +3173,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9">
-        <v>100</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1600</v>
-      </c>
-      <c r="E4" s="15">
-        <v>100</v>
-      </c>
-      <c r="F4" s="15">
-        <v>7</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10">
-        <v>100</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1700</v>
-      </c>
-      <c r="E5" s="16">
-        <v>100</v>
-      </c>
-      <c r="F5" s="16">
-        <v>8</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10">
-        <v>100</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1800</v>
-      </c>
-      <c r="E6" s="16">
-        <v>100</v>
-      </c>
-      <c r="F6" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10">
-        <v>100</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1900</v>
-      </c>
-      <c r="E7" s="16">
-        <v>100</v>
-      </c>
-      <c r="F7" s="16">
-        <v>9</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10">
-        <v>100</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2400</v>
-      </c>
-      <c r="E8" s="16">
-        <v>150</v>
-      </c>
-      <c r="F8" s="16">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11">
-        <v>100</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2800</v>
-      </c>
-      <c r="E9" s="17">
-        <v>200</v>
-      </c>
-      <c r="F9" s="17">
-        <v>12</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0249F-C885-464F-B035-093E95C66C82}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -5,25 +5,26 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D3AF4-6CA6-4E35-B45A-C293070DA108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEBFEBA-A625-4445-B7EA-CB9767D0B91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="10" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet2-8" sheetId="13" r:id="rId2"/>
+    <sheet name="Sheet2-4" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Local Sight Seeing (Hour Basis)'!$B$3:$H$7</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="46">
   <si>
     <t>VEHICLES</t>
   </si>
@@ -251,29 +252,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam,  9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) (9 hours)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AVALANCHI / OOTY You will visit:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Avalnchi, Tribal Musium, Emerald Lake, Herboretum (Garden), Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local. (8 hours)</t>
     </r>
   </si>
   <si>
@@ -398,6 +376,32 @@
   </si>
   <si>
     <t>&amp;#8377; / KM (After Free KMs )</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AVALANCHI / OOTY You will visit: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avalnchi, Tribal Musium, Emerald Lake, Herboretum (Garden), Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local. (8 hours)</t>
+    </r>
+  </si>
+  <si>
+    <t>OOTY SIGHTSEEING - 8 HOURS</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1149,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,7 +1206,7 @@
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1215,6 +1219,218 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0249F-C885-464F-B035-093E95C66C82}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>85</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1600</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>85</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>85</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>85</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1900</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>85</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>85</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161ADDF5-6F89-48DA-99BF-8DE736BDF2BC}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G9"/>
@@ -1264,19 +1480,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1426,13 +1642,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7890ACA1-DE51-4723-A53B-70483ED043AD}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1675,7 @@
     </row>
     <row r="2" spans="1:7" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1476,19 +1692,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1639,12 +1855,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217E35EC-E400-4F65-91CE-30E087668BA9}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>50</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1050</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>50</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1350</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>50</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>50</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2D1E5D-E6C8-4056-B138-A06BCF08D1CD}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,7 +2089,7 @@
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1688,19 +2106,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1851,7 +2269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E9BDC-6743-41EB-AF86-0A9BA761778C}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G9"/>
@@ -1884,7 +2302,7 @@
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1901,19 +2319,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2063,7 +2481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD403B99-6FA7-45E3-B075-BA0F617E5467}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G9"/>
@@ -2113,19 +2531,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2275,7 +2693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5BAB64-26EA-416E-BC42-AC71DC158CB5}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G9"/>
@@ -2325,19 +2743,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2487,7 +2905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE67FD3B-EEDA-49E6-9DAB-534DA2C2936C}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G9"/>
@@ -2537,19 +2955,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2699,7 +3117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EA6A0E-F402-4739-9533-60EA36696789}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G9"/>
@@ -2749,19 +3167,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2911,7 +3329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837C1F2D-79E6-41D9-959A-FA998B6F2267}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G9"/>
@@ -2944,7 +3362,7 @@
     </row>
     <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -2961,19 +3379,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3103,218 +3521,6 @@
       </c>
       <c r="D9" s="14">
         <v>2800</v>
-      </c>
-      <c r="E9" s="17">
-        <v>200</v>
-      </c>
-      <c r="F9" s="17">
-        <v>12</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0249F-C885-464F-B035-093E95C66C82}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9">
-        <v>85</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1600</v>
-      </c>
-      <c r="E4" s="15">
-        <v>100</v>
-      </c>
-      <c r="F4" s="15">
-        <v>7</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10">
-        <v>85</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1700</v>
-      </c>
-      <c r="E5" s="16">
-        <v>100</v>
-      </c>
-      <c r="F5" s="16">
-        <v>8</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10">
-        <v>85</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1800</v>
-      </c>
-      <c r="E6" s="16">
-        <v>100</v>
-      </c>
-      <c r="F6" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10">
-        <v>85</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1900</v>
-      </c>
-      <c r="E7" s="16">
-        <v>100</v>
-      </c>
-      <c r="F7" s="16">
-        <v>9</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10">
-        <v>85</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="16">
-        <v>150</v>
-      </c>
-      <c r="F8" s="16">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11">
-        <v>85</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2500</v>
       </c>
       <c r="E9" s="17">
         <v>200</v>

--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D3AF4-6CA6-4E35-B45A-C293070DA108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D798FC8C-ABC8-4963-A58D-57F5B836EF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="10" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet2-8" sheetId="13" r:id="rId2"/>
+    <sheet name="Sheet2-10" sheetId="14" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Local Sight Seeing (Hour Basis)'!$B$3:$H$7</definedName>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="45">
   <si>
     <t>VEHICLES</t>
   </si>
@@ -1215,6 +1217,430 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837C1F2D-79E6-41D9-959A-FA998B6F2267}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>100</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1600</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>100</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>100</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>100</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1900</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>100</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>100</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0249F-C885-464F-B035-093E95C66C82}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>85</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1600</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>85</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>85</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>85</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1900</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>85</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>85</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161ADDF5-6F89-48DA-99BF-8DE736BDF2BC}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G9"/>
@@ -1426,13 +1852,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7890ACA1-DE51-4723-A53B-70483ED043AD}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,12 +2065,416 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED0A75B-B167-4ABF-B5C1-6897D800ABC3}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>50</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1050</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>50</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1350</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>50</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>50</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3124D10C-6EC6-4146-A7D6-C401171F2167}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>50</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1050</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>50</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1350</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>50</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>50</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2D1E5D-E6C8-4056-B138-A06BCF08D1CD}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,7 +2681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E9BDC-6743-41EB-AF86-0A9BA761778C}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G9"/>
@@ -2063,7 +2893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD403B99-6FA7-45E3-B075-BA0F617E5467}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G9"/>
@@ -2275,7 +3105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5BAB64-26EA-416E-BC42-AC71DC158CB5}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G9"/>
@@ -2487,7 +3317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE67FD3B-EEDA-49E6-9DAB-534DA2C2936C}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G9"/>
@@ -2699,7 +3529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EA6A0E-F402-4739-9533-60EA36696789}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G9"/>
@@ -2909,428 +3739,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837C1F2D-79E6-41D9-959A-FA998B6F2267}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9">
-        <v>100</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1600</v>
-      </c>
-      <c r="E4" s="15">
-        <v>100</v>
-      </c>
-      <c r="F4" s="15">
-        <v>7</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10">
-        <v>100</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1700</v>
-      </c>
-      <c r="E5" s="16">
-        <v>100</v>
-      </c>
-      <c r="F5" s="16">
-        <v>8</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10">
-        <v>100</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1800</v>
-      </c>
-      <c r="E6" s="16">
-        <v>100</v>
-      </c>
-      <c r="F6" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10">
-        <v>100</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1900</v>
-      </c>
-      <c r="E7" s="16">
-        <v>100</v>
-      </c>
-      <c r="F7" s="16">
-        <v>9</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10">
-        <v>100</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2400</v>
-      </c>
-      <c r="E8" s="16">
-        <v>150</v>
-      </c>
-      <c r="F8" s="16">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11">
-        <v>100</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2800</v>
-      </c>
-      <c r="E9" s="17">
-        <v>200</v>
-      </c>
-      <c r="F9" s="17">
-        <v>12</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0249F-C885-464F-B035-093E95C66C82}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9">
-        <v>85</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1600</v>
-      </c>
-      <c r="E4" s="15">
-        <v>100</v>
-      </c>
-      <c r="F4" s="15">
-        <v>7</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10">
-        <v>85</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1700</v>
-      </c>
-      <c r="E5" s="16">
-        <v>100</v>
-      </c>
-      <c r="F5" s="16">
-        <v>8</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10">
-        <v>85</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1800</v>
-      </c>
-      <c r="E6" s="16">
-        <v>100</v>
-      </c>
-      <c r="F6" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10">
-        <v>85</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1900</v>
-      </c>
-      <c r="E7" s="16">
-        <v>100</v>
-      </c>
-      <c r="F7" s="16">
-        <v>9</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10">
-        <v>85</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="16">
-        <v>150</v>
-      </c>
-      <c r="F8" s="16">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11">
-        <v>85</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2500</v>
-      </c>
-      <c r="E9" s="17">
-        <v>200</v>
-      </c>
-      <c r="F9" s="17">
-        <v>12</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D798FC8C-ABC8-4963-A58D-57F5B836EF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9062F153-30DF-4D60-8996-91B760E7DE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2-8" sheetId="13" r:id="rId2"/>
     <sheet name="Sheet2-10" sheetId="14" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2-5" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
@@ -2270,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3124D10C-6EC6-4146-A7D6-C401171F2167}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
@@ -2473,7 +2473,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>

--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9062F153-30DF-4D60-8996-91B760E7DE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8AAE4-D5CF-46F5-A241-5BB0574BAEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="47">
   <si>
     <t>VEHICLES</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>&amp;#8377; / KM (After Free KMs )</t>
+  </si>
+  <si>
+    <t>OOTY SIGHTSEEING - 10 HOURS</t>
+  </si>
+  <si>
+    <t>OOTY SIGHTSEEING - 8 HOURS</t>
   </si>
 </sst>
 </file>
@@ -2068,15 +2074,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED0A75B-B167-4ABF-B5C1-6897D800ABC3}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -2271,14 +2277,14 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -2473,7 +2479,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>

--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8AAE4-D5CF-46F5-A241-5BB0574BAEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A23E5-F1D7-4DF4-A83D-808FC54EA583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="48">
   <si>
     <t>VEHICLES</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>OOTY SIGHTSEEING - 8 HOURS</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
   </si>
 </sst>
 </file>
@@ -2074,7 +2077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED0A75B-B167-4ABF-B5C1-6897D800ABC3}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
@@ -2276,11 +2279,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3124D10C-6EC6-4146-A7D6-C401171F2167}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
@@ -2337,8 +2343,8 @@
       <c r="C4" s="9">
         <v>50</v>
       </c>
-      <c r="D4" s="12">
-        <v>1000</v>
+      <c r="D4" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="15">
         <v>100</v>

--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A23E5-F1D7-4DF4-A83D-808FC54EA583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AC8191-F7A5-48B3-86C4-D40E1549532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="12" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2-8" sheetId="13" r:id="rId2"/>
     <sheet name="Sheet2-10" sheetId="14" r:id="rId3"/>
     <sheet name="Sheet2-5" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet9" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet10" sheetId="11" r:id="rId12"/>
-    <sheet name="Sheet11" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet3-5" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4-5" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet5-9" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet6-5" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet7-9" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet8-8" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet9-9" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet10-9" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet11-8" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Local Sight Seeing (Hour Basis)'!$B$3:$H$7</definedName>
@@ -1866,7 +1866,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2279,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3124D10C-6EC6-4146-A7D6-C401171F2167}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AC8191-F7A5-48B3-86C4-D40E1549532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368FEB1A-5A45-4D3E-B045-363BD5A21947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="12" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="49">
   <si>
     <t>VEHICLES</t>
   </si>
@@ -253,29 +252,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam,  9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) (9 hours)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AVALANCHI / OOTY You will visit:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Avalnchi, Tribal Musium, Emerald Lake, Herboretum (Garden), Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local. (8 hours)</t>
     </r>
   </si>
   <si>
@@ -409,6 +385,18 @@
   </si>
   <si>
     <t>xxxxxx</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;You will visit&lt;/h5&gt; 
+&lt;p&gt;Avalnchi, Tribal Musium, Emerald Lake, Herboretum (Garden), Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local. (8 hours)
+&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;You will visit&lt;/h5&gt;
+&lt;p&gt;Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local Market. (5 hours)&lt;/p&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -713,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -774,9 +762,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1154,22 +1139,22 @@
     <col min="3" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>39</v>
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -1213,7 +1198,7 @@
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1246,48 +1231,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,48 +1443,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1670,48 +1655,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1866,8 +1851,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,48 +1867,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2070,6 +2055,7 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2077,55 +2063,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED0A75B-B167-4ABF-B5C1-6897D800ABC3}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="A1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2289,48 +2275,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="A1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2344,7 +2330,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="15">
         <v>100</v>
@@ -2501,48 +2487,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2714,48 +2700,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2926,48 +2912,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3138,48 +3124,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3350,48 +3336,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3562,48 +3548,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368FEB1A-5A45-4D3E-B045-363BD5A21947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EE83AF-37F8-4DF8-BA70-FEF3201113BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="11" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="49">
   <si>
     <t>VEHICLES</t>
   </si>
@@ -136,18 +136,49 @@
   </si>
   <si>
     <t>9. Ooty &amp; Pykara Sightseeing</t>
+  </si>
+  <si>
+    <t>Local Sightseeing</t>
+  </si>
+  <si>
+    <t>10. Avalanchi &amp; Ooty Sightseeing</t>
+  </si>
+  <si>
+    <t>Book Now</t>
+  </si>
+  <si>
+    <t>FREE KMS</t>
+  </si>
+  <si>
+    <t>&amp;#8377; / HRS(Extra Hrs.)</t>
+  </si>
+  <si>
+    <t>&amp;#8377; / KM (After Free KMs )</t>
+  </si>
+  <si>
+    <t>OOTY SIGHTSEEING - 10 HOURS</t>
+  </si>
+  <si>
+    <t>OOTY SIGHTSEEING - 8 HOURS</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;You will visit&lt;/h5&gt; 
+&lt;p&gt;Avalnchi, Tribal Musium, Emerald Lake, Herboretum (Garden), Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local. (8 hours)
+&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00FFFF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">PYKARA You will visit: </t>
+      <t>&lt;div&gt;&lt;h5&gt;You will visit</t>
     </r>
     <r>
       <rPr>
@@ -157,21 +188,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Pine Forest, 6th mile (shooting spot), Kamarajar Sagar Dam, 9th mile (shooting spot), Golf course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) 
-Back to Ooty. (5 hours)</t>
+      <t>&lt;/h5&gt; &lt;p&gt;Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local Market. (5 hours)&lt;/p&gt;&lt;/div&gt;</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <u/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00FFFF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>OOTY/ COONOOR You will visit:</t>
+      <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt;</t>
     </r>
     <r>
       <rPr>
@@ -181,20 +211,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Dodabetta Peak, Tea Factory &amp; Museum, Wax Museum, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden, Ketty Valley view (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Tea Garden, Nigiris Mountain Toy Train. (9 hours)</t>
+      <t xml:space="preserve"> Ketty Valleyview( view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Nilgiris Mountain Toy Train, Return back to Ooty. (5 hours)&lt;/p&gt;&lt;/div&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt;Pine Forest, 6th mile (shooting spot), Kamarajar Sagar Dam, 9th mile (shooting spot), Golf course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) 
+Back to Ooty. (5 hours)&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt; Dodabetta Peak, Tea Factory &amp; Museum, Wax Museum, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden, Ketty Valley view (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Tea Garden, Nigiris Mountain Toy Train. (9 hours)&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt; Mudumalai Wild Life Sanctuary, Bison Valley View, Kalhatty Water Falls. 
+Falls (5 hours)&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt; Kateri Park, Black Thunder Wter Them Park, Law's Falls. (8 hours)&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;You will visit&lt;/h5&gt;
+&lt;p&gt;Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local Market. (8 hours)&lt;/p&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00FFFF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MUDUMALAI You will visit:</t>
+      <t>&lt;div&gt;                                                                                                    &lt;h5&gt;You will visit</t>
     </r>
     <r>
       <rPr>
@@ -204,199 +253,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Mudumalai Wild Life Sanctuary, Bison Valley View, Kalhatty Water Falls. 
-Falls (5 hours)</t>
+      <t>&lt;/h5&gt;                                                                         &lt;p&gt; Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local Market. (10 hours)&lt;/p&gt;&lt;/div&gt;</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PYKARA / MUDUMALAI You will visit:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Pine Forest, 6th mile (shooting spot), Kamarajar Sagar Dam, 9th mile (shooting spot), Golf course (outer view), Pykara falls, Pykara lake &amp; boating, Needle Rock, Frog Mountain View, Pykara Dam (outer view), Mudumalai Wild Life Sanctuary, Bison Valley View, Kalhatty Water Falls. (9 hours)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OOTY/ PYKARA You will visit: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam,  9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) (9 hours)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AVALANCHI You will visit:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Avalanchi,Tribal Musium, Emerald Lake, Herboretum( garden). (9hours)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BLACK THUNDER You will visit:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Kateri Park, Black Thunder Wter Them Park, Law's Falls. (8 hours)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOTY You will visit</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local Market. (5 hours)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COONOOR You will visit:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00FFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ketty Valleyview( view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Nilgiris Mountain Toy Train, Return back to Ooty. (5 hours)</t>
-    </r>
-  </si>
-  <si>
-    <t>Local Sightseeing</t>
-  </si>
-  <si>
-    <t>10. Avalanchi &amp; Ooty Sightseeing</t>
-  </si>
-  <si>
-    <t>Book Now</t>
-  </si>
-  <si>
-    <t>FREE KMS</t>
-  </si>
-  <si>
-    <t>&amp;#8377; / HRS(Extra Hrs.)</t>
-  </si>
-  <si>
-    <t>&amp;#8377; / KM (After Free KMs )</t>
-  </si>
-  <si>
-    <t>OOTY SIGHTSEEING - 10 HOURS</t>
-  </si>
-  <si>
-    <t>OOTY SIGHTSEEING - 8 HOURS</t>
-  </si>
-  <si>
-    <t>xxxxxx</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-&lt;h5&gt;You will visit&lt;/h5&gt; 
-&lt;p&gt;Avalnchi, Tribal Musium, Emerald Lake, Herboretum (Garden), Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local. (8 hours)
-&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-&lt;h5&gt;You will visit&lt;/h5&gt;
-&lt;p&gt;Dodabetta Peak, Tea Museum, Tea Factory, Botanical Garden, Boathouse, Thread Garden, Wax Museum, Shopping in Local Market. (5 hours)&lt;/p&gt;&lt;/div&gt;</t>
+    <t xml:space="preserve"> &lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt; Pine Forest, 6th mile (shooting spot), Kamarajar Sagar Dam, 9th mile (shooting spot), Golf course (outer view), Pykara falls, Pykara lake &amp; boating, Needle Rock, Frog Mountain View, Pykara Dam (outer view), Mudumalai Wild Life Sanctuary, Bison Valley View, Kalhatty Water Falls. (9 hours)&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt; Avalanchi,Tribal Musium, Emerald Lake, Herboretum( garden). (9hours)&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt; Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam,  9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) (9 hours)&lt;/p&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -406,7 +273,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,14 +303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF00FFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,7 +312,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="12"/>
       <color rgb="FF00FFFF"/>
       <name val="Calibri"/>
@@ -701,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -767,13 +625,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -805,6 +663,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,7 +1008,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1198,7 +1065,7 @@
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1083,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,7 +1110,7 @@
     </row>
     <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1260,19 +1127,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1428,7 +1295,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1322,7 @@
     </row>
     <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1472,19 +1339,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1639,8 +1506,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1534,7 @@
     </row>
     <row r="2" spans="1:7" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1684,19 +1551,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1879,7 +1746,7 @@
     </row>
     <row r="2" spans="1:7" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1896,19 +1763,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2063,15 +1930,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED0A75B-B167-4ABF-B5C1-6897D800ABC3}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2082,7 +1949,7 @@
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2099,19 +1966,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2266,7 +2133,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,7 +2143,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2286,15 +2153,15 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
@@ -2304,19 +2171,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2329,8 +2196,8 @@
       <c r="C4" s="9">
         <v>50</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>46</v>
+      <c r="D4" s="12">
+        <v>1000</v>
       </c>
       <c r="E4" s="15">
         <v>100</v>
@@ -2463,6 +2330,7 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2472,7 +2340,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2367,7 @@
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2516,19 +2384,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2685,7 +2553,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,7 +2580,7 @@
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2729,19 +2597,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2897,7 +2765,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2924,7 +2792,7 @@
     </row>
     <row r="2" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2941,19 +2809,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3109,7 +2977,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,7 +3004,7 @@
     </row>
     <row r="2" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -3153,19 +3021,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3321,7 +3189,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,7 +3216,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -3365,19 +3233,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3533,7 +3401,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,7 +3428,7 @@
     </row>
     <row r="2" spans="1:7" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -3577,19 +3445,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EE83AF-37F8-4DF8-BA70-FEF3201113BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72F45AD-5AA7-4E23-B472-B17DB7231CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="11" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="7" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
@@ -222,10 +222,6 @@
     <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt; Dodabetta Peak, Tea Factory &amp; Museum, Wax Museum, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden, Ketty Valley view (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Tea Garden, Nigiris Mountain Toy Train. (9 hours)&lt;/p&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt; Mudumalai Wild Life Sanctuary, Bison Valley View, Kalhatty Water Falls. 
-Falls (5 hours)&lt;/p&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt; Kateri Park, Black Thunder Wter Them Park, Law's Falls. (8 hours)&lt;/p&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -264,6 +260,9 @@
   </si>
   <si>
     <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt; Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam,  9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) (9 hours)&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt;Mudumalai Wild Life Sanctuary, Bison Valley View, Kalhatty Water Falls.(5 hours)&lt;/p&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1109,7 @@
     </row>
     <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1322,7 +1321,7 @@
     </row>
     <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1506,7 +1505,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1534,7 +1533,7 @@
     </row>
     <row r="2" spans="1:7" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1949,7 +1948,7 @@
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2154,7 +2153,7 @@
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -3188,8 +3187,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,7 +3215,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -3428,7 +3427,7 @@
     </row>
     <row r="2" spans="1:7" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>

--- a/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis).xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72F45AD-5AA7-4E23-B472-B17DB7231CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA2881-63F0-40C4-B712-73B78FEDDF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="7" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4D87A9C2-CEA1-4B8C-949D-4D16195EB809}"/>
   </bookViews>
   <sheets>
     <sheet name="Local Sight Seeing (Hour Basis)" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2-8" sheetId="13" r:id="rId2"/>
     <sheet name="Sheet2-10" sheetId="14" r:id="rId3"/>
     <sheet name="Sheet2-5" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet3-5" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet4-5" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet5-9" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet6-5" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet7-9" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet8-8" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet9-9" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet10-9" sheetId="11" r:id="rId12"/>
-    <sheet name="Sheet11-8" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet3-10" sheetId="15" r:id="rId5"/>
+    <sheet name="Sheet3-5" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet4-5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet5-9" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet6-5" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet7-9" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet8-8" sheetId="9" r:id="rId11"/>
+    <sheet name="Sheet9-9" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet10-9" sheetId="11" r:id="rId13"/>
+    <sheet name="Sheet11-8" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Local Sight Seeing (Hour Basis)'!$B$3:$H$7</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="52">
   <si>
     <t>VEHICLES</t>
   </si>
@@ -263,6 +264,15 @@
   </si>
   <si>
     <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt;Mudumalai Wild Life Sanctuary, Bison Valley View, Kalhatty Water Falls.(5 hours)&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t>COONOOR SIGHTSEEING - 10 HOURS</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;You will visit&lt;/h5&gt;&lt;p&gt; Ketty Valleyview( view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Nilgiris Mountain Toy Train, Return back to Ooty. (5 hours)&lt;/p&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -338,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -554,11 +564,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,6 +692,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,8 +1027,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1077,6 +1110,218 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EA6A0E-F402-4739-9533-60EA36696789}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>120</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1800</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10">
+        <v>120</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1850</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10">
+        <v>120</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10">
+        <v>120</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2100</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10">
+        <v>120</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11">
+        <v>120</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837C1F2D-79E6-41D9-959A-FA998B6F2267}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G9"/>
@@ -1288,7 +1533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0249F-C885-464F-B035-093E95C66C82}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G9"/>
@@ -1500,7 +1745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161ADDF5-6F89-48DA-99BF-8DE736BDF2BC}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G9"/>
@@ -1712,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7890ACA1-DE51-4723-A53B-70483ED043AD}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G9"/>
@@ -1930,10 +2175,13 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
@@ -2547,12 +2795,218 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE80FF96-9096-4C2D-97CB-A670D5DA347D}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>65</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>65</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1050</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>65</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1350</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>65</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="16">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>65</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="17">
+        <v>200</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E9BDC-6743-41EB-AF86-0A9BA761778C}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,7 +3212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD403B99-6FA7-45E3-B075-BA0F617E5467}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G9"/>
@@ -2970,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5BAB64-26EA-416E-BC42-AC71DC158CB5}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G9"/>
@@ -3182,13 +3636,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE67FD3B-EEDA-49E6-9DAB-534DA2C2936C}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,215 +3839,26 @@
         <v>5</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EA6A0E-F402-4739-9533-60EA36696789}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
-        <v>120</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1800</v>
-      </c>
-      <c r="E4" s="15">
-        <v>100</v>
-      </c>
-      <c r="F4" s="15">
-        <v>7</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10">
-        <v>120</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1850</v>
-      </c>
-      <c r="E5" s="16">
-        <v>100</v>
-      </c>
-      <c r="F5" s="16">
-        <v>8</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10">
-        <v>120</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2000</v>
-      </c>
-      <c r="E6" s="16">
-        <v>100</v>
-      </c>
-      <c r="F6" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10">
-        <v>120</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2100</v>
-      </c>
-      <c r="E7" s="16">
-        <v>100</v>
-      </c>
-      <c r="F7" s="16">
-        <v>9</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>9</v>
-      </c>
-      <c r="C8" s="10">
-        <v>120</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2700</v>
-      </c>
-      <c r="E8" s="16">
-        <v>150</v>
-      </c>
-      <c r="F8" s="16">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11">
-        <v>120</v>
-      </c>
-      <c r="D9" s="14">
-        <v>3200</v>
-      </c>
-      <c r="E9" s="17">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="40">
+        <v>5</v>
+      </c>
+      <c r="C10" s="41">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3400</v>
+      </c>
+      <c r="E10" s="2">
         <v>200</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="42">
         <v>12</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
     </row>
